--- a/biology/Botanique/Cardamine_nymanii/Cardamine_nymanii.xlsx
+++ b/biology/Botanique/Cardamine_nymanii/Cardamine_nymanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cardamine nymanii est une espèce de plantes herbacées de la famille des Brassicaceae, proche de la cardamine des prés (Cardamine pratensis), et qui doit son nom en hommage au botaniste Carl Fredrik Nyman. On la rencontre en Islande[2], au Groenland, à l'île de Spitzberg, au nord de l'Eurasie et dans les régions arctiques de l'Amérique du Nord (notamment Nunavut, nord du Labrador, Alaska, etc.)
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cardamine nymanii est une espèce de plantes herbacées de la famille des Brassicaceae, proche de la cardamine des prés (Cardamine pratensis), et qui doit son nom en hommage au botaniste Carl Fredrik Nyman. On la rencontre en Islande, au Groenland, à l'île de Spitzberg, au nord de l'Eurasie et dans les régions arctiques de l'Amérique du Nord (notamment Nunavut, nord du Labrador, Alaska, etc.)
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle apprécie les prés humides, les bords des rivières, des étangs et des lacs de la toundra, et les berges des marais, ainsi que les bords de l'océan Arctique et des régions boréales de l'Atlantique Nord.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cardamine pratensis L. var. angustifolia Hook.</t>
         </is>
